--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1713728.119330728</v>
+        <v>1817907.7537818</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>254.6526724167752</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>25.08092246628501</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.75031660954631</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>273.1506399572484</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6677347133221</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>172.0352812622633</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>180.4228467130192</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8183662111611819</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>201.0564857346847</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.42986125998489</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>185.9056456618225</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>59.00369384632639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2290,22 +2292,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>5.640152769374993</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96.99837838564402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.421048022935</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060195</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>146.0663306291632</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576172</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8518831495031</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>70.803028119798</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8674042714187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>46.35517081455633</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758761</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>64.35711883683339</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>90.48716302792774</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>107.1685137621105</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7058473537595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1935.846242975427</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1577.580544368676</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1191.792291770432</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>780.8063869808245</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>365.733936825821</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2304.808759915838</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.8675266085669</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>1076.656586475145</v>
       </c>
       <c r="X4" t="n">
-        <v>680.6375233676413</v>
+        <v>848.6670355771272</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5159914388066</v>
+        <v>627.8744564335971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.10523981398</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207229</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>866.051288608985</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0653838193775</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>2621.077176004519</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>2621.077176004519</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1753.521536712469</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1531.754921281995</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1242.652054407639</v>
+        <v>1745.049248378372</v>
       </c>
       <c r="V7" t="n">
-        <v>987.9675662017521</v>
+        <v>1490.364760172485</v>
       </c>
       <c r="W7" t="n">
-        <v>698.5503961647914</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="X7" t="n">
-        <v>698.5503961647914</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851716</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.246402911304</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.980704304554</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.980704304554</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.9947995149462</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.9223493599426</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>67.33874896870987</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3122.518462281207</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2438.686919667522</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915838</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.6375233676413</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C10" t="n">
-        <v>680.6375233676413</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>680.6375233676413</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6375233676413</v>
+        <v>1199.924444051042</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.6375233676413</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5178,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5276,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,16 +5366,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5467,19 +5469,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.3306680894883</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356233</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.979132919728</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1434.29471405501</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836018</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556949</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433592</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>415.5933575433592</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>415.5933575433592</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651099</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310857</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.76834423055</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398594</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421536</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765734</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559847</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522886</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624869</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481339</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.70136564882</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913447</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913447</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>2978.613657539999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3606.211621094606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>4158.121351333893</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>4581.744500828961</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3227.225672628158</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C34" t="n">
-        <v>3058.289489700251</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D34" t="n">
-        <v>2908.172850287915</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>2760.259756705522</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>2613.369809207612</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2446.173709922492</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398594</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742792</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>4147.073437536906</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3857.656267499945</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>3629.666716601928</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3408.874137458398</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539998</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094605</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.30868757553</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488568</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603202</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397315</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360355</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462337</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318807</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>1964.511902868375</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>555.9063198314551</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>409.0163723335447</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7564,55 +7566,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898186995</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.5813165460164</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>385.6451336181095</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.188796316454</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.113569660651</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1474.429081454764</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1185.011911417804</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>957.0223605197863</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.2297813762561</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>108.2431272523014</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>212.9445005827198</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>68.52575990662483</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.73277020259169</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.81244489841436</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457059906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>45.37941682720908</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.03697526434111</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>179.3544845744806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.32043864788506</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907544</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813243</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26430,19 +26432,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.6146887267</v>
+        <v>-972219.614688727</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388657</v>
+        <v>356525.1310388662</v>
       </c>
       <c r="D6" t="n">
-        <v>356525.1310388659</v>
+        <v>356525.1310388658</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727103</v>
+        <v>107731.8748727105</v>
       </c>
       <c r="F6" t="n">
-        <v>433144.3366800656</v>
+        <v>433144.3366800655</v>
       </c>
       <c r="G6" t="n">
+        <v>433144.3366800657</v>
+      </c>
+      <c r="H6" t="n">
+        <v>433144.3366800658</v>
+      </c>
+      <c r="I6" t="n">
         <v>433144.3366800655</v>
       </c>
-      <c r="H6" t="n">
-        <v>433144.336680066</v>
-      </c>
-      <c r="I6" t="n">
-        <v>433144.3366800658</v>
-      </c>
       <c r="J6" t="n">
-        <v>215613.134282788</v>
+        <v>215613.1342827882</v>
       </c>
       <c r="K6" t="n">
         <v>433144.3366800657</v>
@@ -26552,16 +26554,16 @@
         <v>433144.3366800655</v>
       </c>
       <c r="M6" t="n">
-        <v>348089.3087445542</v>
+        <v>348089.308744554</v>
       </c>
       <c r="N6" t="n">
-        <v>433144.3366800657</v>
+        <v>433144.3366800659</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800661</v>
+        <v>433144.3366800656</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800661</v>
+        <v>433144.3366800656</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.95509197054523</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.442075870306</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.8343367425485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>109.5832017062322</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25399094013136</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>17.73374406917861</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.7889914925937</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>40.75856356176477</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>49.93868622421729</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>91.00410138658428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>100.3061925437904</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29685,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,7 +32086,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,19 +33268,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>537.6437863443689</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>312.3207226334973</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>395.0475418999244</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>174.4792836591384</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817907.7537818</v>
+        <v>1813895.143767807</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>254.6526724167752</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>175.2171019709028</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>69.25160695998034</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>25.08092246628501</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273.1506399572484</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>180.4228467130192</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>128.8843715649924</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>201.0564857346847</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>185.9056456618225</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722587</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673068</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.640152769374993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004698</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>146.0663306291632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.01175877060098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>70.803028119798</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>220.4289331391124</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.35517081455633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>64.35711883683339</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>218.0507329335212</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16281301712711</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>90.48716302792774</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004698</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2304.808759915838</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1935.846242975427</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1577.580544368676</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1191.792291770432</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>780.8063869808245</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>365.733936825821</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915838</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2304.808759915838</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.8744564335971</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>846.4114288731527</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>696.2947894608169</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>548.3816958784238</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>401.4917483805134</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>233.7889117552324</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.656586475145</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X4" t="n">
-        <v>848.6670355771272</v>
+        <v>1417.788655774829</v>
       </c>
       <c r="Y4" t="n">
-        <v>627.8744564335971</v>
+        <v>1196.996076631299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265599</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.077176004519</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2621.077176004519</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.5065461617548</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1745.049248378372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1490.364760172485</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1200.947590135525</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.947590135525</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>980.1550109919946</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>905.5765942093301</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>547.3108956025796</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>547.3108956025796</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3122.518462281207</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2791.455574937636</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.686919667522</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1427.913994949059</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1427.913994949059</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.913994949059</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1199.924444051042</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.1318649075118</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1090.48308855706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6791,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>878.3568999154069</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>709.4207169875</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>1327.139029956954</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2314.910189088387</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2095.308724111328</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U40" t="n">
-        <v>1806.233497455525</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.549009249638</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.131839212678</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.14228831466</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y40" t="n">
-        <v>813.3497091711304</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.872235754091</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C43" t="n">
-        <v>853.936052826184</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D43" t="n">
-        <v>703.8194134138482</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="E43" t="n">
-        <v>555.9063198314551</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>409.0163723335447</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7566,55 +7566,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.313279727861</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
         <v>411.1294017454277</v>
@@ -7797,61 +7797,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-4.933841422955754e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392193737</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.9445005827198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462278</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>77.81244489841436</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>66.09406519747859</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>34.0869103903068</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.27114962944205</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.03697526434111</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907545</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.751717940758681e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813255</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813241</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26438,7 +26438,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678114</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.614688727</v>
+        <v>-972219.6146887268</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388662</v>
+        <v>356525.1310388655</v>
       </c>
       <c r="D6" t="n">
-        <v>356525.1310388658</v>
+        <v>356525.1310388655</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727105</v>
+        <v>107384.4956183542</v>
       </c>
       <c r="F6" t="n">
-        <v>433144.3366800655</v>
+        <v>432796.9574257086</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257085</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800658</v>
+        <v>432796.9574257088</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.3366800655</v>
+        <v>432796.9574257088</v>
       </c>
       <c r="J6" t="n">
-        <v>215613.1342827882</v>
+        <v>215265.7550284312</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257089</v>
       </c>
       <c r="L6" t="n">
-        <v>433144.3366800655</v>
+        <v>432796.9574257091</v>
       </c>
       <c r="M6" t="n">
-        <v>348089.308744554</v>
+        <v>347741.9294901974</v>
       </c>
       <c r="N6" t="n">
-        <v>433144.3366800659</v>
+        <v>432796.9574257092</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800656</v>
+        <v>432796.9574257087</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800656</v>
+        <v>432796.9574257086</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.95509197054523</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>174.0238667465102</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.50340795434045</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>261.442075870306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.5832017062322</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>105.7889914925937</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>277.991674176719</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.93868622421729</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>100.3061925437904</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-8.086081967694677e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458095</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P24" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>537.6437863443698</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013651</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010494</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P24" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>395.0475418999253</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813895.143767807</v>
+        <v>1815655.674070591</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>341.8337041009693</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>175.2171019709028</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>69.25160695998034</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.0648965483583</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840607</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.168189153341</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>128.8843715649924</v>
+        <v>83.567413185674</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991754</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.8286381302724</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>147.0792452528011</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428166</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673068</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.696957004698</v>
+        <v>82.47290449300773</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>220.4289331391124</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>137.7610225486951</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>218.0507329335212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.16281301712711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>5.890337106878037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>101.696957004698</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1665.642192534529</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.34761180106</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>846.4114288731527</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>696.2947894608169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>548.3816958784238</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>401.4917483805134</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>233.7889117552324</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.788655774829</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.996076631299</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149742</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093301</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D8" t="n">
-        <v>547.3108956025796</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="E8" t="n">
-        <v>547.3108956025796</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189675</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.53275017731</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.868625753638</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257311</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,58 +5889,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
         <v>402.7245934908939</v>
@@ -7089,58 +7089,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235166</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1754.779756989948</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952987</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.37303605497</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,7 +7484,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273906</v>
@@ -7493,7 +7493,7 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703119</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703119</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>695.5020655703119</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,34 +7824,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.933841422955754e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.0033420516649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631857592</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392193737</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409392984</v>
+        <v>84.7739166056201</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012604</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09406519747859</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>27.76311574357376</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>34.0869103903068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.27114962944205</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>280.2941372823661</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069536</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877441.6981069536</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.751717940758681e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813259</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813257</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813241</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26438,7 +26438,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-972219.6146887268</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388655</v>
+        <v>356525.1310388654</v>
       </c>
       <c r="D6" t="n">
         <v>356525.1310388655</v>
       </c>
       <c r="E6" t="n">
-        <v>107384.4956183542</v>
+        <v>107697.1369472746</v>
       </c>
       <c r="F6" t="n">
-        <v>432796.9574257086</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="G6" t="n">
-        <v>432796.9574257085</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="H6" t="n">
-        <v>432796.9574257088</v>
+        <v>433109.59875463</v>
       </c>
       <c r="I6" t="n">
-        <v>432796.9574257088</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="J6" t="n">
-        <v>215265.7550284312</v>
+        <v>215578.3963573526</v>
       </c>
       <c r="K6" t="n">
-        <v>432796.9574257089</v>
+        <v>433109.5987546296</v>
       </c>
       <c r="L6" t="n">
-        <v>432796.9574257091</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="M6" t="n">
-        <v>347741.9294901974</v>
+        <v>348054.5708191183</v>
       </c>
       <c r="N6" t="n">
-        <v>432796.9574257092</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="O6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.5987546301</v>
       </c>
       <c r="P6" t="n">
-        <v>432796.9574257086</v>
+        <v>433109.5987546302</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,37 +26968,37 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>12.84933751971369</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>174.0238667465102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>75.50340795434045</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>31.98681829672583</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.66894511512231</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.2778014719929</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.68204843992099</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>77.76396351670634</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>277.991674176719</v>
+        <v>323.3086325560374</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911068</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.086081967694677e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29480,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-2.910607430388206e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>699.0496615458095</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,13 +31864,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162543</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>556.4534171013651</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010494</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146267</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
